--- a/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocRis_Pro/4.2.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocRis_Pro/4.2.0/accreditamento-checklist_V8.2.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arcadia/www/fse2.0/app/TEST CASE/GIT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arcadia/www/fse2.0/app/TEST CASE/GIT/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocRis_Pro/4.2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BC65AB-F715-3941-B4DB-142AC76878B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20542FC-BAA4-9447-9264-C6263B6059AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="500" windowWidth="33720" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10900" yWindow="500" windowWidth="33720" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="542">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -2059,7 +2059,13 @@
     <t>Correzione valore da backoffice e invito a tentare nuovamente l'invio</t>
   </si>
   <si>
-    <t>L'applicativo non prevedere il campo "Complicanze" in modo strutturato</t>
+    <t>2024-11-09T09:47:21Z</t>
+  </si>
+  <si>
+    <t>b43f689a69a3dd43</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.205.250157.f84672a80c8cfe71480a3001673ab34b71a533610205ccb1d4014b4fd18f6988.05f12b16a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4439,10 +4445,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K96" sqref="K96"/>
+      <selection pane="bottomRight" activeCell="L225" sqref="L225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11739,7 +11745,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:23" ht="11" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" ht="11" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="29">
         <v>369</v>
       </c>
@@ -12939,19 +12945,23 @@
       <c r="E224" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="F224" s="43"/>
-      <c r="G224" s="44"/>
-      <c r="H224" s="44"/>
-      <c r="I224" s="44"/>
+      <c r="F224" s="43">
+        <v>45605</v>
+      </c>
+      <c r="G224" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="H224" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="I224" s="44" t="s">
+        <v>541</v>
+      </c>
       <c r="J224" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="K224" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="L224" s="54" t="s">
-        <v>539</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="K224" s="45"/>
+      <c r="L224" s="54"/>
       <c r="M224" s="45"/>
       <c r="N224" s="45"/>
       <c r="O224" s="45"/>
@@ -19887,15 +19897,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -19905,6 +19906,15 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20166,14 +20176,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
@@ -20186,6 +20188,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocRis_Pro/4.2.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocRis_Pro/4.2.0/accreditamento-checklist_V8.2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arcadia/www/fse2.0/app/TEST CASE/GIT/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocRis_Pro/4.2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20542FC-BAA4-9447-9264-C6263B6059AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3BCDC-8FD0-DC4F-8990-E03BDF3A6D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10900" yWindow="500" windowWidth="33720" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="542">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -4445,10 +4445,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="L225" sqref="L225"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6291,7 +6291,9 @@
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
-      <c r="J50" s="34"/>
+      <c r="J50" s="34" t="s">
+        <v>87</v>
+      </c>
       <c r="K50" s="34"/>
       <c r="L50" s="34"/>
       <c r="M50" s="34" t="s">
@@ -19897,6 +19899,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -19906,15 +19917,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20176,6 +20178,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
@@ -20188,14 +20198,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocRis_Pro/4.2.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocRis_Pro/4.2.0/accreditamento-checklist_V8.2.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arcadia/www/fse2.0/app/TEST CASE/GIT/GATEWAY/A1#111#DICOMDATAXX/DICOMDATA/DocRis_Pro/4.2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC3BCDC-8FD0-DC4F-8990-E03BDF3A6D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEF1DFC-3B12-F045-80B3-81415FD75EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10900" yWindow="500" windowWidth="33720" windowHeight="22300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2059,13 +2059,13 @@
     <t>Correzione valore da backoffice e invito a tentare nuovamente l'invio</t>
   </si>
   <si>
-    <t>2024-11-09T09:47:21Z</t>
-  </si>
-  <si>
-    <t>b43f689a69a3dd43</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.205.250157.f84672a80c8cfe71480a3001673ab34b71a533610205ccb1d4014b4fd18f6988.05f12b16a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2024-11-13T17:16:32Z</t>
+  </si>
+  <si>
+    <t>6c28c6ef94588ebe</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.205.250157.f84672a80c8cfe71480a3001673ab34b71a533610205ccb1d4014b4fd18f6988.f804c3b0ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -4445,10 +4445,10 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
+      <selection pane="bottomRight" activeCell="I225" sqref="I225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12948,7 +12948,7 @@
         <v>378</v>
       </c>
       <c r="F224" s="43">
-        <v>45605</v>
+        <v>45609</v>
       </c>
       <c r="G224" s="44" t="s">
         <v>539</v>
@@ -19899,27 +19899,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -20177,10 +20156,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20203,20 +20214,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>